--- a/scalability/results.xlsx
+++ b/scalability/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colli\Documents\School Stuff\COP 4533\Programming Assignments\Assignment 1\scalability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BE1FB4-E010-4665-B552-0C2C5036087D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170A7874-D1F8-4306-8D0B-54288987CAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A391F266-E17E-4E5C-9C8D-11200A8B5F8C}"/>
   </bookViews>
@@ -2699,7 +2699,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="A31" sqref="A31:M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
